--- a/document/存储MAP.xlsx
+++ b/document/存储MAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22020"/>
+    <workbookView windowWidth="18144" windowHeight="14808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>页编号</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>眼盾插入至今时间</t>
+  </si>
+  <si>
+    <t>主机有没有+1</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
@@ -2293,7 +2296,9 @@
       <c r="D40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>

--- a/document/存储MAP.xlsx
+++ b/document/存储MAP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18144" windowHeight="14808"/>
+    <workbookView windowHeight="22020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
